--- a/biology/Médecine/Crème_hydratante/Crème_hydratante.xlsx
+++ b/biology/Médecine/Crème_hydratante/Crème_hydratante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%A8me_hydratante</t>
+          <t>Crème_hydratante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une crème hydratante est un produit cosmétique qui hydrate la peau et empêche sa déshydratation en reconstituant le film hydrolipidique, protection naturelle de la peau éliminée par le savon durant la toilette[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une crème hydratante est un produit cosmétique qui hydrate la peau et empêche sa déshydratation en reconstituant le film hydrolipidique, protection naturelle de la peau éliminée par le savon durant la toilette.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cr%C3%A8me_hydratante</t>
+          <t>Crème_hydratante</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le film hydrolipidique qui recouvre la peau est un mélange de sébum, substance grasse, et de sueur. Une crème hydratante a une composition inspirée de celle du film hydrolipidique. C'est une émulsion constituée d'une phase grasse (comme de l'huile) et d'une phase aqueuse (comme de l'eau). La phase aqueuse apporte de l'eau à la peau. La phase huileuse nourrit la peau[réf. nécessaire] et forme une couche grasse qui empêche l'eau de s'évaporer.
 L'émulsion peut être de deux types :
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cr%C3%A8me_hydratante</t>
+          <t>Crème_hydratante</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première crème hydratante moderne, à la texture de crème fouettée, est la crème Secret de Bonne Femme de Guerlain, inventée en 1904[2],[3]. Cette crème, de longue conservation mais ne supportant pas les voyages en avion, a été commercialisée jusque dans les années 1990. À partir de 1911, elle est concurrencée par la crème Nivea, toujours en vente au XXIe siècle, qui doit sa stabilité à un émulsifiant nommé eucerit.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première crème hydratante moderne, à la texture de crème fouettée, est la crème Secret de Bonne Femme de Guerlain, inventée en 1904,. Cette crème, de longue conservation mais ne supportant pas les voyages en avion, a été commercialisée jusque dans les années 1990. À partir de 1911, elle est concurrencée par la crème Nivea, toujours en vente au XXIe siècle, qui doit sa stabilité à un émulsifiant nommé eucerit.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cr%C3%A8me_hydratante</t>
+          <t>Crème_hydratante</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Les différents types de crèmes hydratantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe un grand nombre de types de crèmes cosmétiques, mais toutes sont des crèmes hydratantes auxquelles on ajoute différents additifs selon l'effet recherché :
 crème hydratante pour le visage, crème de jour, crème de nuit
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cr%C3%A8me_hydratante</t>
+          <t>Crème_hydratante</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Réglementations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Aujourd’hui[Quand ?], on retrouve de nombreuses crèmes que ce soit crèmes anti-âges, purifiantes, hydratantes, de nuit, de jour… dont la composition est beaucoup plus naturelle qu'auparavant[Quand ?]. En effet, de nombreuses réglementations ont été mises en vigueur afin de contrôler chaque composant que peut contenir un produit. Effectivement, un certain nombre de crèmes étaient composées de substances nocives pour la peau et la santé (parabène, silicones synthétiques (non biodégradables), phénoxyéthanol…). Ces régulations ont permis de réduire l’impact négatif qu’avaient ces substances sur les utilisateurs. En France, les produits cosmétiques sont contrôlés par l’Agence nationale de sécurité du médicament et des produits de santé (ANSM) et par la Direction générale de la Concurrence, de la Consommation et de la Répression des fraudes (DGCCRF). 
 Depuis le 1er janvier 2017, la certification internationale Cosmos exige désormais que tout nouveau cosmétique doit être composé à 20% d’ingrédients issus de l’agriculture biologique.
